--- a/biology/Histoire de la zoologie et de la botanique/Louis_Lavauden/Louis_Lavauden.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Lavauden/Louis_Lavauden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Lavauden est un forestier et zoologiste français, né le 19 juin 1881 à Grenoble et mort le 1er septembre 1935 à Anjou dans l'Isère[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Lavauden est un forestier et zoologiste français, né le 19 juin 1881 à Grenoble et mort le 1er septembre 1935 à Anjou dans l'Isère.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à École nationale des eaux et forêts, il passe plusieurs années dans le Dauphiné et en Afrique. Il sert, durant toute la Première Guerre mondiale, dans l'infanterie en tant qu'officier des chasseurs forestiers.
 Après la guerre, il passe dix ans comme garde général forestier en Tunisie. En 1925, il participe à l'une des premières traversées motorisées du Sahara qui, de Tunis, rejoint le lac Tchad et le Dahomey.
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La chasse et la faune cynégétique en Tunisie. Tunis, Imprimerie Guinle, 1920. 40 pages.
 Les vertébrés du Sahara. Paris, 1926. 200 pages, 2 cartes.
